--- a/biology/Botanique/Liste_d'épices_et_de_graines_aromatiques/Liste_d'épices_et_de_graines_aromatiques.xlsx
+++ b/biology/Botanique/Liste_d'épices_et_de_graines_aromatiques/Liste_d'épices_et_de_graines_aromatiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pices_et_de_graines_aromatiques</t>
+          <t>Liste_d'épices_et_de_graines_aromatiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans bien des pays, spécialement en Orient, des graines et autres produits végétaux fournissent des aromates et des épices de saveur forte ou subtile. la possibilité qu'ils offrent de varier le goût d'aliments quotidiens - haricots, pois, riz, pain, racines diverses - a été appréciée de temps immémorial et, depuis lors, on n'a cessé de les cultiver dans les potagers du monde entier.
 Les espèces indigènes de chaque région - Europe du Nord, pourtour méditerranéen ou Proche-Orient - continuent à y être les plus utilisées, mais ces plantes ne connaissent pas de frontières. La graine aromatique du fenugrec (Trigonella fœunumgœucum ), herbe originaire d'Asie, parfume légumes et déserts en Egypte, en Turquie et en Iran; elle entre dans la décomposition du curry asiatique.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pices_et_de_graines_aromatiques</t>
+          <t>Liste_d'épices_et_de_graines_aromatiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ajowan
